--- a/layouts/RevisionCargaAlmacen/RevisionEntradaAlmacen1.xlsx
+++ b/layouts/RevisionCargaAlmacen/RevisionEntradaAlmacen1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\layouts\RevisionCargaAlmacen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACDB4C5-E2D1-4F7C-A40B-695BB9274E66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5984A369-C327-441C-B8E6-F0B1400E758A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="1560" windowWidth="16485" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
